--- a/proofread/memory.xlsx
+++ b/proofread/memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\git\chisel-book\proofread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BE666-F8D7-4CD0-878A-F8F4F39B50E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10D271-F52D-4B44-A95B-8C1627E1E005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
   <si>
     <t>表記1</t>
     <rPh sb="0" eb="2">
@@ -644,6 +644,17 @@
   </si>
   <si>
     <t>どれがわかりやすく、ふつう?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周期</t>
+    <rPh sb="0" eb="2">
+      <t>シュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイクル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -969,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I61"/>
+  <dimension ref="C2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1595,6 +1606,17 @@
         <v>134</v>
       </c>
     </row>
+    <row r="62" spans="5:9">
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proofread/memory.xlsx
+++ b/proofread/memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\git\chisel-book\proofread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10D271-F52D-4B44-A95B-8C1627E1E005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A1B34-8884-489E-9FFB-ED845A410D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>表記1</t>
     <rPh sb="0" eb="2">
@@ -655,6 +655,25 @@
   </si>
   <si>
     <t>サイクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハミングウェイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハミング重み</t>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアル・インターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアルインターフェース</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -980,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I62"/>
+  <dimension ref="C2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1617,6 +1636,22 @@
         <v>134</v>
       </c>
     </row>
+    <row r="63" spans="5:9">
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9">
+      <c r="E64" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proofread/memory.xlsx
+++ b/proofread/memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\git\chisel-book\proofread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A1B34-8884-489E-9FFB-ED845A410D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBE8B6-1D01-428B-BA27-8B738826BB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="181">
   <si>
     <t>表記1</t>
     <rPh sb="0" eb="2">
@@ -674,6 +674,137 @@
   </si>
   <si>
     <t>シリアルインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア・エンジニア</t>
+  </si>
+  <si>
+    <t>ソフトウェアエンジニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア・プログラマ</t>
+  </si>
+  <si>
+    <t>ソフトウェアプログラマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェア・ジェネレータ</t>
+  </si>
+  <si>
+    <t>ハードウェアジェネレータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Playボタン</t>
+  </si>
+  <si>
+    <t>Quatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェア・ノード</t>
+  </si>
+  <si>
+    <t>ハードウェアノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピン・アサイン</t>
+  </si>
+  <si>
+    <t>ピンアサイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール・フロー</t>
+  </si>
+  <si>
+    <t>ツールフロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーフフィールド</t>
+  </si>
+  <si>
+    <t>リーフ・フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェッチステージ</t>
+  </si>
+  <si>
+    <t>フェッチ・ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェアインスタンス</t>
+  </si>
+  <si>
+    <t>ハードウェア・インスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルディングブロック</t>
+  </si>
+  <si>
+    <t>ビルディング・ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブール方程式</t>
+  </si>
+  <si>
+    <t>ブール式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じもの?違うもの?</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア・プログラム</t>
+  </si>
+  <si>
+    <t>ソフトウェアプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワン・ホット</t>
+  </si>
+  <si>
+    <t>ワンホット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味を丁寧に書く方がよいのかもしれない</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セグメント・ディスプレイ</t>
+  </si>
+  <si>
+    <t>セグメントディスプレイ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -999,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I64"/>
+  <dimension ref="C2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1652,6 +1783,132 @@
         <v>148</v>
       </c>
     </row>
+    <row r="65" spans="5:9">
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="I68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9">
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9">
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9">
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9">
+      <c r="E74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9">
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9">
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9">
+      <c r="E77" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9">
+      <c r="E78" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9">
+      <c r="E79" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proofread/memory.xlsx
+++ b/proofread/memory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\git\chisel-book\proofread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{9BCBE8B6-1D01-428B-BA27-8B738826BB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2DA0604-8996-4108-B250-4F55550A0F32}"/>
+  <xr:revisionPtr revIDLastSave="910" documentId="13_ncr:1_{9BCBE8B6-1D01-428B-BA27-8B738826BB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC6D21EE-B5EF-4DDE-81AB-D0B64C6ED970}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="400">
   <si>
     <t>状態</t>
   </si>
@@ -82,23 +82,7 @@
     <t>Indexの有無</t>
   </si>
   <si>
-    <t>未処理</t>
-  </si>
-  <si>
-    <t>デジタルシステムデザイン</t>
-  </si>
-  <si>
-    <t>デジタルシステム設計</t>
-  </si>
-  <si>
-    <t>どちらがよいだろう?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デザイン</t>
-  </si>
-  <si>
-    <t>設計</t>
+    <t>処理済</t>
   </si>
   <si>
     <t>図</t>
@@ -140,11 +124,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アップデート演算子</t>
-  </si>
-  <si>
-    <t>update演算子</t>
-    <phoneticPr fontId="1"/>
+    <t>未処理</t>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>パケット</t>
+  </si>
+  <si>
+    <t>ふつうどちら?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分パッケージが正しいと思います（誤記なんじゃないかと。）</t>
+  </si>
+  <si>
+    <t>無し</t>
+  </si>
+  <si>
+    <t>バンドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>束</t>
+    <rPh sb="0" eb="1">
+      <t>タバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれがわかりやすく、ふつう?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ一般系が無い気がする。自分はBundleって書いちゃってた気が。。</t>
+  </si>
+  <si>
+    <t>SWの世界では「バンドル」だと思うので、ここもバンドルが自然だと思います</t>
+  </si>
+  <si>
+    <t>有り</t>
+  </si>
+  <si>
+    <t>順序回路</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンジョカイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンシャル回路</t>
+    <rPh sb="7" eb="9">
+      <t>カイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは順序回路と思います。</t>
+  </si>
+  <si>
+    <t>デフォルト</t>
+  </si>
+  <si>
+    <t>既定</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>どれが自然?</t>
+    <rPh sb="3" eb="5">
+      <t>シゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”デフォルト”でしょうか。</t>
+  </si>
+  <si>
+    <t>波形</t>
+  </si>
+  <si>
+    <t>ウェーブフォーム</t>
   </si>
   <si>
     <t>どちらが自然?</t>
@@ -152,350 +218,6 @@
       <t>シゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パッケージ</t>
-  </si>
-  <si>
-    <t>パケット</t>
-  </si>
-  <si>
-    <t>ふつうどちら?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>多分パッケージが正しいと思います（誤記なんじゃないかと。）</t>
-  </si>
-  <si>
-    <t>無し</t>
-  </si>
-  <si>
-    <t>~される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~されます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とめかた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「る」止めに統一しましょうか？</t>
-  </si>
-  <si>
-    <t>~できる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~できます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シグナル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場合によるか?</t>
-    <rPh sb="0" eb="2">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バンドル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>束</t>
-    <rPh sb="0" eb="1">
-      <t>タバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bundle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どれがわかりやすく、ふつう?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これ一般系が無い気がする。自分はBundleって書いちゃってた気が。。</t>
-  </si>
-  <si>
-    <t>SWの世界では「バンドル」だと思うので、ここもバンドルが自然だと思います</t>
-  </si>
-  <si>
-    <t>有り</t>
-  </si>
-  <si>
-    <t>チャンネル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャネル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の場合日本語で書くときは”チャネル”を使ってる気がします</t>
-  </si>
-  <si>
-    <t>順序回路</t>
-    <rPh sb="0" eb="4">
-      <t>ジュンジョカイロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンシャル回路</t>
-    <rPh sb="7" eb="9">
-      <t>カイロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これは順序回路と思います。</t>
-  </si>
-  <si>
-    <t>順序回路ブロック</t>
-    <rPh sb="0" eb="4">
-      <t>ジュンジョカイロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クロックド・デザイン</t>
-  </si>
-  <si>
-    <t>クロックドデザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中黒</t>
-    <rPh sb="0" eb="2">
-      <t>ナカグロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インプリメンテーション</t>
-  </si>
-  <si>
-    <t>インプリメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実装</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インプリメンテーションとインプリメントは違う。。。か?</t>
-    <rPh sb="20" eb="21">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバウンス</t>
-  </si>
-  <si>
-    <t>デ・バウンス</t>
-  </si>
-  <si>
-    <t>エレメント</t>
-  </si>
-  <si>
-    <t>要素</t>
-  </si>
-  <si>
-    <t>素子</t>
-  </si>
-  <si>
-    <t>場合によるなぁ</t>
-    <rPh sb="0" eb="2">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レジスタ</t>
-  </si>
-  <si>
-    <t>レジスター</t>
-  </si>
-  <si>
-    <t>語尾</t>
-    <rPh sb="0" eb="2">
-      <t>ゴビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ＪＩＳ規格の表記ガイドラインでは、日本語で書くときは”ー”を取るらしいですね。
-最近は”ー”ありの表記も増えてるみたいですが。
-でも自分は書くときは”レジスタ”ですね。
-ここに上げてもらったものは伸ばし棒無しの方が自然に感じます。</t>
-  </si>
-  <si>
-    <t>有り （レジスター）</t>
-  </si>
-  <si>
-    <t>キャプチャー</t>
-  </si>
-  <si>
-    <t>キャプチャ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バッファー</t>
-  </si>
-  <si>
-    <t>バッファ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポインタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポインター</t>
-  </si>
-  <si>
-    <t>レシーバー</t>
-  </si>
-  <si>
-    <t>レシーバ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスター</t>
-  </si>
-  <si>
-    <t>テスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャプチャ</t>
-  </si>
-  <si>
-    <t>取り入れ</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取り込み</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文中、場合によるかも</t>
-    <rPh sb="0" eb="2">
-      <t>ブンチュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インプリメント</t>
-  </si>
-  <si>
-    <t>実装</t>
-  </si>
-  <si>
-    <t>立ち上がりエッジ</t>
-  </si>
-  <si>
-    <t>こういう表記が普通?</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>立ち上がり／立ち下がり、って書くかなぁ。（エッジは合っても良い気はします）</t>
-  </si>
-  <si>
-    <t>クロック信号</t>
-  </si>
-  <si>
-    <t>clock信号</t>
-  </si>
-  <si>
-    <t>一般的な話のときは”クロック”って書く気がします。</t>
-  </si>
-  <si>
-    <t>グローバルクロック信号</t>
-  </si>
-  <si>
-    <t>”グローバルクロック”って訳しちゃう気がします。</t>
-  </si>
-  <si>
-    <t>Reset信号</t>
-  </si>
-  <si>
-    <t>リセット信号</t>
-  </si>
-  <si>
-    <t>”リセット”でしょうか。</t>
-  </si>
-  <si>
-    <t>デフォルト</t>
-  </si>
-  <si>
-    <t>既定</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>どれが自然?</t>
-    <rPh sb="3" eb="5">
-      <t>シゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>”デフォルト”でしょうか。</t>
-  </si>
-  <si>
-    <t>幅推論</t>
-  </si>
-  <si>
-    <t>あんまり聞いたことがない。。文脈次第ですが、”ビット幅の推定”とかって書いた方がしっくりきそうです。</t>
-  </si>
-  <si>
-    <t>波形</t>
-  </si>
-  <si>
-    <t>ウェーブフォーム</t>
   </si>
   <si>
     <t>これは”波形”ですかね。</t>
@@ -532,6 +254,302 @@
     <t>これも”タイミング図”ですかね。</t>
   </si>
   <si>
+    <t>レジスタ</t>
+  </si>
+  <si>
+    <t>レジスター</t>
+  </si>
+  <si>
+    <t>語尾</t>
+    <rPh sb="0" eb="2">
+      <t>ゴビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＪＩＳ規格の表記ガイドラインでは、日本語で書くときは”ー”を取るらしいですね。
+最近は”ー”ありの表記も増えてるみたいですが。
+でも自分は書くときは”レジスタ”ですね。
+ここに上げてもらったものは伸ばし棒無しの方が自然に感じます。</t>
+  </si>
+  <si>
+    <t>有り （レジスター）</t>
+  </si>
+  <si>
+    <t>ポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインター</t>
+  </si>
+  <si>
+    <t>ミーリ</t>
+  </si>
+  <si>
+    <t>ミーリー</t>
+  </si>
+  <si>
+    <t>Mealy</t>
+  </si>
+  <si>
+    <t>これも日本語にするなら伸ばし棒無しのをよく見る気がします。</t>
+  </si>
+  <si>
+    <t>ムーア</t>
+  </si>
+  <si>
+    <t>ムーアー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>ブール式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブール方程式</t>
+  </si>
+  <si>
+    <t>同じもの?違うもの?</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分同じものかと。ブール式の方が良い気がします。</t>
+  </si>
+  <si>
+    <t>~される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~されます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とめかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「る」止めに統一しましょうか？</t>
+  </si>
+  <si>
+    <t>~できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~できます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訳語</t>
+  </si>
+  <si>
+    <t>デジタルシステムデザイン</t>
+  </si>
+  <si>
+    <t>デジタルシステム設計</t>
+  </si>
+  <si>
+    <t>どちらがよいだろう?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>デジタル設計</t>
+  </si>
+  <si>
+    <t>クロックドデザイン</t>
+  </si>
+  <si>
+    <t>同期設計</t>
+  </si>
+  <si>
+    <t>どちらがよいの?</t>
+  </si>
+  <si>
+    <t>アップデート演算子</t>
+  </si>
+  <si>
+    <t>update演算子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シグナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合によるか?</t>
+    <rPh sb="0" eb="2">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の場合日本語で書くときは”チャネル”を使ってる気がします</t>
+  </si>
+  <si>
+    <t>順序回路ブロック</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンジョカイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプリメンテーション</t>
+  </si>
+  <si>
+    <t>インプリメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプリメンテーションとインプリメントは違う。。。か?</t>
+    <rPh sb="20" eb="21">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバウンス</t>
+  </si>
+  <si>
+    <t>デ・バウンス</t>
+  </si>
+  <si>
+    <t>エレメント</t>
+  </si>
+  <si>
+    <t>要素</t>
+  </si>
+  <si>
+    <t>素子</t>
+  </si>
+  <si>
+    <t>場合によるなぁ</t>
+    <rPh sb="0" eb="2">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャ</t>
+  </si>
+  <si>
+    <t>取り入れ</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り込み</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文中、場合によるかも</t>
+    <rPh sb="0" eb="2">
+      <t>ブンチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプリメント</t>
+  </si>
+  <si>
+    <t>実装</t>
+  </si>
+  <si>
+    <t>立ち上がりエッジ</t>
+  </si>
+  <si>
+    <t>こういう表記が普通?</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち上がり／立ち下がり、って書くかなぁ。（エッジは合っても良い気はします）</t>
+  </si>
+  <si>
+    <t>クロック信号</t>
+  </si>
+  <si>
+    <t>clock信号</t>
+  </si>
+  <si>
+    <t>一般的な話のときは”クロック”って書く気がします。</t>
+  </si>
+  <si>
+    <t>グローバルクロック信号</t>
+  </si>
+  <si>
+    <t>”グローバルクロック”って訳しちゃう気がします。</t>
+  </si>
+  <si>
+    <t>Reset信号</t>
+  </si>
+  <si>
+    <t>リセット信号</t>
+  </si>
+  <si>
+    <t>”リセット”でしょうか。</t>
+  </si>
+  <si>
+    <t>幅推論</t>
+  </si>
+  <si>
+    <t>あんまり聞いたことがない。。文脈次第ですが、”ビット幅の推定”とかって書いた方がしっくりきそうです。</t>
+  </si>
+  <si>
     <t>インクリメント</t>
   </si>
   <si>
@@ -572,20 +590,6 @@
     <t>低</t>
   </si>
   <si>
-    <t>カウンター</t>
-  </si>
-  <si>
-    <t>カウンタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマー</t>
-  </si>
-  <si>
-    <t>タイマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
   </si>
   <si>
@@ -615,42 +619,6 @@
   </si>
   <si>
     <t>状態遷移論理／ステートマシン論理？？</t>
-  </si>
-  <si>
-    <t>ミーリ</t>
-  </si>
-  <si>
-    <t>ミーリー</t>
-  </si>
-  <si>
-    <t>Mealy</t>
-  </si>
-  <si>
-    <t>これも日本語にするなら伸ばし棒無しのをよく見る気がします。</t>
-  </si>
-  <si>
-    <t>ムーア</t>
-  </si>
-  <si>
-    <t>ムーアー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>ミーリーマシン</t>
-  </si>
-  <si>
-    <t>ミーリー・マシン</t>
-  </si>
-  <si>
-    <t>ムーアーマシン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ムーアー・マシン</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ミーリーFSM</t>
@@ -737,23 +705,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受信機</t>
-  </si>
-  <si>
-    <t>コンシューマー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンシューマ</t>
-  </si>
-  <si>
-    <t>プロデューサー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロデューサ</t>
-  </si>
-  <si>
     <t>周期</t>
     <rPh sb="0" eb="2">
       <t>シュウキ</t>
@@ -765,6 +716,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>シミュレーション</t>
+  </si>
+  <si>
+    <t>シュミレーション</t>
+  </si>
+  <si>
+    <t>シミュレート</t>
+  </si>
+  <si>
+    <t>シュミレート</t>
+  </si>
+  <si>
     <t>ハミングウェイト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,63 +739,519 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Playボタン</t>
+  </si>
+  <si>
+    <t>Quatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラボレーション</t>
+  </si>
+  <si>
+    <t>むつかしくない?</t>
+  </si>
+  <si>
+    <t>組み合わせ</t>
+  </si>
+  <si>
+    <t>組合せ</t>
+  </si>
+  <si>
+    <t>送り仮名のゆれ。。。めんどうだなぁ</t>
+  </si>
+  <si>
+    <t>Ready-validインターフェイス</t>
+  </si>
+  <si>
+    <t>Ready-Validインターフェース</t>
+  </si>
+  <si>
+    <t>コンストラクト</t>
+  </si>
+  <si>
+    <t>ストラクチャ</t>
+  </si>
+  <si>
+    <t>構造(体)</t>
+  </si>
+  <si>
+    <t>棒</t>
+  </si>
+  <si>
+    <t>バッファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッファー</t>
+  </si>
+  <si>
+    <t>レシーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシーバー</t>
+  </si>
+  <si>
+    <t>テスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスター</t>
+  </si>
+  <si>
+    <t>タイマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+  </si>
+  <si>
+    <t>カウンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンター</t>
+  </si>
+  <si>
+    <t>受信機</t>
+  </si>
+  <si>
+    <t>コンシューマ</t>
+  </si>
+  <si>
+    <t>コンシューマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロデューサ</t>
+  </si>
+  <si>
+    <t>プロデューサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッシャー</t>
+  </si>
+  <si>
+    <t>フラッシャ</t>
+  </si>
+  <si>
+    <t>ジェネレータ</t>
+  </si>
+  <si>
+    <t>ジェネレーター</t>
+  </si>
+  <si>
+    <t>マイナー</t>
+  </si>
+  <si>
+    <t>パラメータ</t>
+  </si>
+  <si>
+    <t>パラメーター</t>
+  </si>
+  <si>
+    <t>フレンドリー</t>
+  </si>
+  <si>
+    <t>コンピュータ</t>
+  </si>
+  <si>
+    <t>コンピューター</t>
+  </si>
+  <si>
+    <t>アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャー</t>
+  </si>
+  <si>
+    <t>オーダスキー</t>
+  </si>
+  <si>
+    <t>人名</t>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>マネージャ</t>
+  </si>
+  <si>
+    <t>マネージャー</t>
+  </si>
+  <si>
+    <t>ベンダ</t>
+  </si>
+  <si>
+    <t>ベンダー</t>
+  </si>
+  <si>
+    <t>フリー</t>
+  </si>
+  <si>
+    <t>ライブラリ</t>
+  </si>
+  <si>
+    <t>ライブラリー</t>
+  </si>
+  <si>
+    <t>フォルダ</t>
+  </si>
+  <si>
+    <t>フォルダー</t>
+  </si>
+  <si>
+    <t>ポピュラー</t>
+  </si>
+  <si>
+    <t>リポジトリ</t>
+  </si>
+  <si>
+    <t>リポジトリー</t>
+  </si>
+  <si>
+    <t>データ</t>
+  </si>
+  <si>
+    <t>データー</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>トリガ</t>
+  </si>
+  <si>
+    <t>トリガー</t>
+  </si>
+  <si>
+    <t>べクタ</t>
+  </si>
+  <si>
+    <t>べクター</t>
+  </si>
+  <si>
+    <t>ビューア</t>
+  </si>
+  <si>
+    <t>ビューアー</t>
+  </si>
+  <si>
+    <t>ユーティリティ</t>
+  </si>
+  <si>
+    <t>ユーティリティー</t>
+  </si>
+  <si>
+    <t>デコーダー</t>
+  </si>
+  <si>
+    <t>エンコーダー</t>
+  </si>
+  <si>
+    <t>マルチプレクサ</t>
+  </si>
+  <si>
+    <t>マルチプレクサー</t>
+  </si>
+  <si>
+    <t>プロセッサ</t>
+  </si>
+  <si>
+    <t>プロセッサー</t>
+  </si>
+  <si>
+    <t>タイマ</t>
+  </si>
+  <si>
+    <t>フィルタ</t>
+  </si>
+  <si>
+    <t>フィルター</t>
+  </si>
+  <si>
+    <t>ワイヤ</t>
+  </si>
+  <si>
+    <t>ワイヤー</t>
+  </si>
+  <si>
+    <t>ワイア</t>
+  </si>
+  <si>
+    <t>メモリ</t>
+  </si>
+  <si>
+    <t>メモリー</t>
+  </si>
+  <si>
+    <t>スタビリティ</t>
+  </si>
+  <si>
+    <t>スタビリティー</t>
+  </si>
+  <si>
+    <t>シンクロナイザ</t>
+  </si>
+  <si>
+    <t>シンクロナイザー</t>
+  </si>
+  <si>
+    <t>ワンライナー</t>
+  </si>
+  <si>
+    <t>ワンライナ</t>
+  </si>
+  <si>
+    <t>オペレータ</t>
+  </si>
+  <si>
+    <t>オペレーター</t>
+  </si>
+  <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>これはまた、デリケートな表現だ。。。</t>
+  </si>
+  <si>
+    <t>レシーバ</t>
+  </si>
+  <si>
+    <t>アキュムレータ</t>
+  </si>
+  <si>
+    <t>アキュムレーター</t>
+  </si>
+  <si>
+    <t>ティッカー</t>
+  </si>
+  <si>
+    <t>ポインタ</t>
+  </si>
+  <si>
+    <t>トランスミッタ</t>
+  </si>
+  <si>
+    <t>トランスミッター</t>
+  </si>
+  <si>
+    <t>ヘルパ</t>
+  </si>
+  <si>
+    <t>ヘルパー</t>
+  </si>
+  <si>
+    <t>コンテナ</t>
+  </si>
+  <si>
+    <t>コンテナー</t>
+  </si>
+  <si>
+    <t>オーバーフロー</t>
+  </si>
+  <si>
+    <t>フォールスルー</t>
+  </si>
+  <si>
+    <t>アセンブラ</t>
+  </si>
+  <si>
+    <t>アセンブラー</t>
+  </si>
+  <si>
+    <t>シミュレーター</t>
+  </si>
+  <si>
+    <t>シミュレータ</t>
+  </si>
+  <si>
+    <t>サーバー</t>
+  </si>
+  <si>
+    <t>サーバ</t>
+  </si>
+  <si>
+    <t>バークレー</t>
+  </si>
+  <si>
+    <t>アービター</t>
+  </si>
+  <si>
+    <t>アービタ</t>
+  </si>
+  <si>
+    <t>ツアー</t>
+  </si>
+  <si>
+    <t>キュー</t>
+  </si>
+  <si>
+    <t>エコー</t>
+  </si>
+  <si>
+    <t>デキュー</t>
+  </si>
+  <si>
+    <t>エンキュー</t>
+  </si>
+  <si>
+    <t>ルーター</t>
+  </si>
+  <si>
+    <t>ルータ</t>
+  </si>
+  <si>
+    <t>Networkならルーターかな</t>
+  </si>
+  <si>
+    <t>フロー</t>
+  </si>
+  <si>
+    <t>マーカー</t>
+  </si>
+  <si>
+    <t>パワー</t>
+  </si>
+  <si>
+    <t>コピー</t>
+  </si>
+  <si>
+    <t>ツリー</t>
+  </si>
+  <si>
+    <t>カバー</t>
+  </si>
+  <si>
+    <t>バー</t>
+  </si>
+  <si>
+    <t>アクセラレーター</t>
+  </si>
+  <si>
+    <t>アクセラレータ</t>
+  </si>
+  <si>
+    <t>キャプチャー</t>
+  </si>
+  <si>
+    <t>キャプチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中黒</t>
+  </si>
+  <si>
+    <t>マーチン・シェーベル</t>
+  </si>
+  <si>
+    <t>マーチンシェーベル</t>
+  </si>
+  <si>
+    <t>ジャック・ケーニッヒ</t>
+  </si>
+  <si>
+    <t>ジャックケーニッヒ</t>
+  </si>
+  <si>
+    <t>デナードスケーリング</t>
+  </si>
+  <si>
+    <t>デナード・スケーリング</t>
+  </si>
+  <si>
+    <t>日本語にするのもありかもしれない</t>
+  </si>
+  <si>
+    <t>クロックドデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロックド・デザイン</t>
+  </si>
+  <si>
+    <t>中黒</t>
+    <rPh sb="0" eb="2">
+      <t>ナカグロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミーリーマシン</t>
+  </si>
+  <si>
+    <t>ミーリー・マシン</t>
+  </si>
+  <si>
+    <t>ムーアーマシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムーアー・マシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアルインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>シリアル・インターフェース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シリアルインターフェース</t>
+    <t>ソフトウェアエンジニア</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ソフトウェア・エンジニア</t>
   </si>
   <si>
-    <t>ソフトウェアエンジニア</t>
+    <t>ソフトウェアプログラマ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ソフトウェア・プログラマ</t>
   </si>
   <si>
-    <t>ソフトウェアプログラマ</t>
+    <t>ソフトウェアエンジニアリング</t>
+  </si>
+  <si>
+    <t>ソフトウェア・エンジニアリング</t>
+  </si>
+  <si>
+    <t>ハードウェアジェネレータ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ハードウェア・ジェネレータ</t>
   </si>
   <si>
-    <t>ハードウェアジェネレータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Playボタン</t>
-  </si>
-  <si>
-    <t>Quatus</t>
+    <t>ハードウェアノード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ハードウェア・ノード</t>
   </si>
   <si>
-    <t>ハードウェアノード</t>
+    <t>ピンアサイン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ピン・アサイン</t>
   </si>
   <si>
-    <t>ピンアサイン</t>
+    <t>ツールフロー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ツール・フロー</t>
   </si>
   <si>
-    <t>ツールフロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リーフフィールド</t>
   </si>
   <si>
@@ -861,38 +1280,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブール式</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブール方程式</t>
-  </si>
-  <si>
-    <t>同じもの?違うもの?</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>多分同じものかと。ブール式の方が良い気がします。</t>
+    <t>ソフトウェアプログラム</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ソフトウェア・プログラム</t>
   </si>
   <si>
-    <t>ソフトウェアプログラム</t>
+    <t>ワンホット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ワン・ホット</t>
-  </si>
-  <si>
-    <t>ワンホット</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>意味を丁寧に書く方がよいのかもしれない</t>
@@ -911,52 +1310,127 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>セグメントディスプレイ</t>
+  </si>
+  <si>
     <t>セグメント・ディスプレイ</t>
   </si>
   <si>
-    <t>セグメントディスプレイ</t>
-  </si>
-  <si>
     <t>ハードウェアノード</t>
   </si>
   <si>
-    <t>エラボレーション</t>
-  </si>
-  <si>
-    <t>むつかしくない?</t>
-  </si>
-  <si>
-    <t>組み合わせ</t>
-  </si>
-  <si>
-    <t>組合せ</t>
-  </si>
-  <si>
-    <t>送り仮名のゆれ。。。めんどうだなぁ</t>
-  </si>
-  <si>
-    <t>Ready-validインターフェイス</t>
-  </si>
-  <si>
-    <t>Ready-Validインターフェース</t>
-  </si>
-  <si>
-    <t>ストラクチャ</t>
-  </si>
-  <si>
-    <t>構造(体)</t>
-  </si>
-  <si>
     <t>フリップフロップ</t>
   </si>
   <si>
     <t>フリップ・フロップ</t>
   </si>
   <si>
-    <t>フラッシャ</t>
-  </si>
-  <si>
-    <t>フラッシャー</t>
+    <t>ワン・ライナー</t>
+  </si>
+  <si>
+    <t>デジタルエレクトロニクス2</t>
+  </si>
+  <si>
+    <t>デジタル・エレクトロニクス2</t>
+  </si>
+  <si>
+    <t>コンピューターサイエンス</t>
+  </si>
+  <si>
+    <t>コンピューター・サイエンス</t>
+  </si>
+  <si>
+    <t>ハードウェアコンポーネント</t>
+  </si>
+  <si>
+    <t>ハードウェア・コンポーネント</t>
+  </si>
+  <si>
+    <t>デアサート</t>
+  </si>
+  <si>
+    <t>デ・アサート</t>
+  </si>
+  <si>
+    <t>デューティサイクル</t>
+  </si>
+  <si>
+    <t>デューティ・サイクル</t>
+  </si>
+  <si>
+    <t>オンチップメモリブロック</t>
+  </si>
+  <si>
+    <t>オンチップ・メモリ・ブロック</t>
+  </si>
+  <si>
+    <t>ハンドシェイクインターフェース</t>
+  </si>
+  <si>
+    <t>ハンドシェイク・インターフェース</t>
+  </si>
+  <si>
+    <t>バックトゥバック</t>
+  </si>
+  <si>
+    <t>バック・トゥ・バック</t>
+  </si>
+  <si>
+    <t>なんか、日本語訳ないんだろうか?</t>
+  </si>
+  <si>
+    <t>真・偽</t>
+  </si>
+  <si>
+    <t>真偽</t>
+  </si>
+  <si>
+    <t>パブリックフィールド</t>
+  </si>
+  <si>
+    <t>パブリック・フィールド</t>
+  </si>
+  <si>
+    <t>ネットワークオンチップ</t>
+  </si>
+  <si>
+    <t>ネットワーク・オン・チップ</t>
+  </si>
+  <si>
+    <t>システムオンチップ</t>
+  </si>
+  <si>
+    <t>システム・オン・チップ</t>
+  </si>
+  <si>
+    <t>ワームホールルーティング</t>
+  </si>
+  <si>
+    <t>ワームホール・ルーティング</t>
+  </si>
+  <si>
+    <t>ビットレジスタ</t>
+  </si>
+  <si>
+    <t>ビット・レジスタ</t>
+  </si>
+  <si>
+    <t>コンピュータアーキテクチャ</t>
+  </si>
+  <si>
+    <t>コンピュータ・アーキテクチャ</t>
+  </si>
+  <si>
+    <t>デジタルデザイン</t>
+  </si>
+  <si>
+    <t>デジタル・デザイン</t>
+  </si>
+  <si>
+    <t>実は「デジタル設計」?</t>
+  </si>
+  <si>
+    <t>訳文</t>
   </si>
   <si>
     <t>エンコードに変換する</t>
@@ -1005,7 +1479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,6 +1501,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1042,7 +1524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1137,11 +1619,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,6 +1664,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1449,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M93"/>
+  <dimension ref="C2:M242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F198" sqref="F197:G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1522,440 +2019,472 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="1"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="3:13" ht="18.75">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="3:13" ht="18.75">
+    </row>
+    <row r="6" spans="3:13" ht="18.75" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="18.75" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="18.75">
       <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="3:13" ht="30.75" customHeight="1">
+    </row>
+    <row r="9" spans="3:13" ht="18.75">
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="18.75">
       <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="8" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="3:13" ht="18.75">
       <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="3:13" ht="18.75">
       <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" ht="56.25">
+    <row r="13" spans="3:13" ht="18.75" customHeight="1">
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" ht="37.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="18.75">
       <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="3:13" ht="18.75">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="18.75" customHeight="1">
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" ht="18.75">
+        <v>57</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:13" ht="18.75" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" ht="18.75">
+    <row r="17" spans="3:13" ht="18.75" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" ht="18.75">
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="3:13" ht="18.75">
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="3:13" ht="18.75">
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="3:13" ht="118.5" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" ht="18.75">
-      <c r="C22" s="1" t="s">
-        <v>10</v>
+    <row r="21" spans="3:13" ht="6" customHeight="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:13" ht="33">
+      <c r="C22" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1965,7 +2494,7 @@
     </row>
     <row r="23" spans="3:13" ht="18.75">
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="1"/>
@@ -1977,58 +2506,52 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="8"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="3:13" ht="18.75">
       <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="3:13" ht="18.75">
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="8"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:13" ht="18.75">
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="1"/>
@@ -2040,29 +2563,29 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="8"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="3:13" ht="18.75">
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="8"/>
@@ -2070,91 +2593,91 @@
     </row>
     <row r="28" spans="3:13" ht="18.75">
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:13" ht="56.25">
+    <row r="29" spans="3:13" ht="18.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:13" ht="37.5">
+    <row r="30" spans="3:13" ht="18.75">
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="8"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:13" ht="37.5">
+    <row r="31" spans="3:13" ht="18.75">
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="8"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="3:13" ht="18.75">
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="1"/>
@@ -2166,166 +2689,144 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="8"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="3:13" ht="18.75">
       <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="75">
+      <c r="K33" s="2"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="3:13" ht="18.75">
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K34" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="8"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="3:13" ht="18.75">
       <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="6" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="3:13" ht="18.75">
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="L36" s="8"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="3:13" ht="18.75">
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="G37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="L37" s="8"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="3:13" ht="18.75">
+    <row r="38" spans="3:13" ht="18.75" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
+      <c r="J38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="3:13" ht="18.75">
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="1"/>
@@ -2338,72 +2839,68 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="2"/>
       <c r="L39" s="8"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="3:13" ht="18.75">
+    <row r="40" spans="3:13" ht="18.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
+      <c r="J40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="3:13" ht="18.75">
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="2"/>
       <c r="L41" s="8"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="3:13" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="8"/>
@@ -2411,15 +2908,15 @@
     </row>
     <row r="43" spans="3:13" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2430,45 +2927,53 @@
     </row>
     <row r="44" spans="3:13" ht="18.75">
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="8"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="3:13" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="8"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="3:13" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="1"/>
@@ -2480,16 +2985,14 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="J46" s="1"/>
       <c r="K46" s="2"/>
       <c r="L46" s="8"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" ht="37.5">
+    <row r="47" spans="3:13" ht="18.75">
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="1"/>
@@ -2502,160 +3005,152 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="8"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" ht="37.5">
+    <row r="48" spans="3:13" ht="18.75" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" ht="37.5">
+    <row r="49" spans="3:13" ht="18.75" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="L49" s="8"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="3:13" ht="18.75">
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="6" t="s">
+      <c r="G50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="3:13" ht="37.5">
-      <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="H50" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="8"/>
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="3:13" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="8"/>
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="3:13" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="2"/>
+      <c r="J52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="L52" s="8"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" ht="18.75">
+    <row r="53" spans="3:13" ht="18.75" customHeight="1">
       <c r="C53" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="L53" s="8"/>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="3:13" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
@@ -2667,7 +3162,7 @@
     </row>
     <row r="55" spans="3:13" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="1"/>
@@ -2680,49 +3175,45 @@
       <c r="J55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="8"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" ht="37.5">
+    <row r="56" spans="3:13" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="J56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="8"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="3:13" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>164</v>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="8"/>
@@ -2730,79 +3221,81 @@
     </row>
     <row r="58" spans="3:13" ht="18.75">
       <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="8"/>
       <c r="F58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="14"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="J58" s="1"/>
       <c r="K58" s="2"/>
       <c r="L58" s="8"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="3:13" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="12"/>
       <c r="F59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="14"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="J59" s="1"/>
       <c r="K59" s="2"/>
       <c r="L59" s="8"/>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="3:13" ht="18.75">
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="F60" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="8"/>
+      <c r="L60" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="3:13" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="8"/>
@@ -2810,173 +3303,161 @@
     </row>
     <row r="62" spans="3:13" ht="18.75">
       <c r="C62" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K62" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="K62" s="1"/>
       <c r="L62" s="8"/>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="3:13" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K63" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="K63" s="1"/>
       <c r="L63" s="8"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="3:13" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="8" t="s">
-        <v>178</v>
-      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="8"/>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="3:13" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="8"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="3:13" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="8"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="3:13" ht="18.75">
-      <c r="C67" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="67" spans="3:13" ht="4.5" customHeight="1">
+      <c r="C67" s="1"/>
       <c r="D67" s="14"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="8"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="3:13" ht="18.75">
-      <c r="C68" s="1" t="s">
-        <v>10</v>
+    <row r="68" spans="3:13" ht="33">
+      <c r="C68" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="8"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="3:13" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="J69" s="1"/>
       <c r="K69" s="2"/>
       <c r="L69" s="8"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="3:13" ht="18.75">
       <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2987,15 +3468,17 @@
     </row>
     <row r="71" spans="3:13" ht="18.75">
       <c r="C71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3006,15 +3489,17 @@
     </row>
     <row r="72" spans="3:13" ht="18.75">
       <c r="C72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3025,15 +3510,17 @@
     </row>
     <row r="73" spans="3:13" ht="18.75">
       <c r="C73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3044,17 +3531,21 @@
     </row>
     <row r="74" spans="3:13" ht="18.75">
       <c r="C74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H74" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="2"/>
@@ -3063,224 +3554,226 @@
     </row>
     <row r="75" spans="3:13" ht="18.75">
       <c r="C75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="8"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="3:13" ht="18.75">
       <c r="C76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="8"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="3:13" ht="34.5" customHeight="1">
+    <row r="77" spans="3:13" ht="18.75">
       <c r="C77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="1"/>
     </row>
     <row r="78" spans="3:13" ht="18.75">
       <c r="C78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="8"/>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="3:13" ht="18.75">
       <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="10"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="8"/>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="3:13" ht="18.75">
       <c r="C80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="13" t="s">
-        <v>213</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="8"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="3:13" ht="18.75">
       <c r="C81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="8"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="3:13" ht="18.75">
       <c r="C82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="8"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="3:13" ht="18.75">
       <c r="C83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="8"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="3:13" ht="18.75">
       <c r="C84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="K84" s="1"/>
       <c r="L84" s="8"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="3:13" ht="18.75">
       <c r="C85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3290,15 +3783,17 @@
     </row>
     <row r="86" spans="3:13" ht="18.75">
       <c r="C86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -3309,15 +3804,17 @@
     </row>
     <row r="87" spans="3:13" ht="18.75">
       <c r="C87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -3328,134 +3825,2238 @@
     </row>
     <row r="88" spans="3:13" ht="18.75">
       <c r="C88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="1">
-        <v>4474</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="8"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="3:13" ht="18.75">
       <c r="C89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="4">
-        <v>3917</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="8"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="3:13" ht="18.75">
       <c r="C90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="4">
-        <v>1851</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="8"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="3:13" ht="18.75">
       <c r="C91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="1">
-        <v>2024</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="8"/>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="3:13" ht="18.75">
       <c r="C92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="1"/>
     </row>
     <row r="93" spans="3:13" ht="18.75">
       <c r="C93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="1">
-        <v>3963</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="3:13" ht="18.75">
+      <c r="C94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="3:13" ht="18.75">
+      <c r="C95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="3:13" ht="18.75">
+      <c r="C96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="3:13" ht="18.75">
+      <c r="C97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="3:13" ht="18.75">
+      <c r="C98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="3:13" ht="18.75">
+      <c r="C99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="3:13" ht="18.75">
+      <c r="C100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="3:13" ht="18.75">
+      <c r="C101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="3:13" ht="18.75">
+      <c r="C102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="3:13" ht="18.75">
+      <c r="C103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-    </row>
+      <c r="G103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="3:13" ht="18.75">
+      <c r="C104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="3:13" ht="18.75">
+      <c r="C105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="3:13" ht="18.75">
+      <c r="C106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="3:13" ht="18.75">
+      <c r="C107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="3:13" ht="18.75">
+      <c r="C108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="3:13" ht="18.75">
+      <c r="C109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="3:13" ht="18.75">
+      <c r="C110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="3:13" ht="18.75">
+      <c r="C111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="3:13" ht="18.75">
+      <c r="C112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="3:13" ht="18.75">
+      <c r="C113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="3:13" ht="18.75">
+      <c r="C114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="3:13" ht="18.75">
+      <c r="C115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="3:13" ht="18.75">
+      <c r="C116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="14"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="3:13" ht="18.75">
+      <c r="C117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="3:13" ht="18.75">
+      <c r="C118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="3:13" ht="18.75">
+      <c r="C119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="3:13" ht="18.75">
+      <c r="C120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="3:13" ht="18.75">
+      <c r="C121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="3:13" ht="18.75">
+      <c r="C122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="3:13" ht="18.75">
+      <c r="C123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="3:13" ht="18.75">
+      <c r="C124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="3:13" ht="18.75">
+      <c r="C125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="14"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="3:13" ht="18.75">
+      <c r="C126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="3:13" ht="18.75">
+      <c r="C127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="3:13" ht="18.75">
+      <c r="C128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="3:13" ht="18.75">
+      <c r="C129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="3:13" ht="18.75">
+      <c r="C130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="3:13" ht="18.75">
+      <c r="C131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="3:13" ht="18.75">
+      <c r="C132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="3:13" ht="18.75">
+      <c r="C133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="3:13" ht="18.75">
+      <c r="C134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="3:13" ht="18.75">
+      <c r="C135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="3:13" ht="18.75">
+      <c r="C136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="3:13" ht="18.75">
+      <c r="C137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="3:13" ht="18.75">
+      <c r="C138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="3:13" ht="18.75">
+      <c r="C139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="3:13" ht="18.75">
+      <c r="C140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="3:13" ht="18.75">
+      <c r="C141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="3:13" ht="18.75">
+      <c r="C142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="3:13" ht="18.75">
+      <c r="C143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="14"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="3:13" ht="18.75">
+      <c r="C144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="14"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="3:13" ht="5.25" customHeight="1">
+      <c r="C145" s="1"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="3:13" ht="33">
+      <c r="C146" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D146" s="14"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="3:13" ht="18.75">
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="3:13" ht="18.75">
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="3:13" ht="18.75">
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K149" s="1"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="3:13" ht="18.75">
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K150" s="2"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="3:13" ht="18.75">
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="3:13" ht="18.75">
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="3:13" ht="18.75">
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="3:13" ht="18.75">
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="3:13" ht="18.75">
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="3:13" ht="18.75">
+      <c r="C156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="3:13" ht="18.75">
+      <c r="C157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="3:13" ht="18.75">
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="3:13" ht="18.75">
+      <c r="C159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="3:13" ht="18.75">
+      <c r="C160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="3:13" ht="18.75">
+      <c r="C161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="3:13" ht="18.75">
+      <c r="C162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="3:13" ht="18.75">
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="3:13" ht="18.75">
+      <c r="C164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="3:13" ht="18.75">
+      <c r="C165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="3:13" ht="18.75">
+      <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K166" s="2"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="3:13" ht="18.75">
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="3:13" ht="18.75">
+      <c r="C168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="3:13" ht="18.75">
+      <c r="C169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="3:13" ht="18.75">
+      <c r="C170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="3:13" ht="18.75">
+      <c r="C171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="3:13" ht="18.75">
+      <c r="C172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="3:13" ht="18.75">
+      <c r="C173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="3:13" ht="18.75">
+      <c r="C174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="1"/>
+    </row>
+    <row r="175" spans="3:13" ht="18.75">
+      <c r="C175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="3:13" ht="18.75">
+      <c r="C176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="3:13" ht="18.75">
+      <c r="C177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="3:13" ht="18.75">
+      <c r="C178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K178" s="1"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="3:13" ht="18.75">
+      <c r="C179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="3:13" ht="18.75">
+      <c r="C180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="3:13" ht="18.75">
+      <c r="C181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="3:13" ht="18.75">
+      <c r="C182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="3:13" ht="18.75">
+      <c r="C183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="3:13" ht="18.75">
+      <c r="C184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="3:13" ht="18.75">
+      <c r="C185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="3:13" ht="18.75">
+      <c r="C186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K186" s="1"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="3:13" ht="5.25" customHeight="1">
+      <c r="C187" s="1"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="1"/>
+    </row>
+    <row r="188" spans="3:13" ht="33">
+      <c r="C188" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D188" s="14"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="3:13" ht="18.75">
+      <c r="C189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="14"/>
+      <c r="E189" s="1">
+        <v>4474</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K189" s="1"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="3:13" ht="18.75">
+      <c r="C190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="16"/>
+      <c r="E190" s="4">
+        <v>3917</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="K190" s="4"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="3:13" ht="18.75">
+      <c r="C191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="4">
+        <v>1851</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K191" s="4"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="3:13" ht="18.75">
+      <c r="C192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="14"/>
+      <c r="E192" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K192" s="1"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="3:13" ht="18.75">
+      <c r="C193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="4">
+        <v>2024</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K193" s="4"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="4"/>
+    </row>
+    <row r="194" spans="3:13" ht="18.75">
+      <c r="C194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="14"/>
+      <c r="E194" s="1">
+        <v>3963</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="3:13" ht="18.75"/>
+    <row r="196" spans="3:13" ht="18.75"/>
+    <row r="197" spans="3:13" ht="18.75"/>
+    <row r="198" spans="3:13" ht="18.75"/>
+    <row r="199" spans="3:13" ht="18.75"/>
+    <row r="200" spans="3:13" ht="18.75"/>
+    <row r="201" spans="3:13" ht="18.75"/>
+    <row r="202" spans="3:13" ht="18.75"/>
+    <row r="205" spans="3:13" ht="18.75"/>
+    <row r="206" spans="3:13" ht="18.75"/>
+    <row r="207" spans="3:13" ht="18.75"/>
+    <row r="208" spans="3:13" ht="18.75"/>
+    <row r="209" ht="18.75"/>
+    <row r="210" ht="18.75"/>
+    <row r="211" ht="18.75"/>
+    <row r="212" ht="18.75"/>
+    <row r="213" ht="18.75"/>
+    <row r="214" ht="18.75"/>
+    <row r="215" ht="18.75"/>
+    <row r="216" ht="18.75"/>
+    <row r="217" ht="18.75"/>
+    <row r="218" ht="18.75"/>
+    <row r="219" ht="18.75"/>
+    <row r="220" ht="18.75"/>
+    <row r="221" ht="18.75"/>
+    <row r="222" ht="18.75"/>
+    <row r="223" ht="18.75"/>
+    <row r="224" ht="18.75"/>
+    <row r="225" ht="18.75"/>
+    <row r="226" ht="18.75"/>
+    <row r="228" ht="18.75"/>
+    <row r="229" ht="18.75"/>
+    <row r="230" ht="18.75"/>
+    <row r="231" ht="18.75"/>
+    <row r="232" ht="18.75"/>
+    <row r="233" ht="18.75"/>
+    <row r="234" ht="18.75"/>
+    <row r="235" ht="18.75"/>
+    <row r="236" ht="18.75"/>
+    <row r="237" ht="18.75"/>
+    <row r="238" ht="18.75"/>
+    <row r="239" ht="18.75"/>
+    <row r="240" ht="18.75"/>
+    <row r="241" ht="18.75"/>
+    <row r="242" ht="18.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proofread/memory.xlsx
+++ b/proofread/memory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\git\chisel-book\proofread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="910" documentId="13_ncr:1_{9BCBE8B6-1D01-428B-BA27-8B738826BB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC6D21EE-B5EF-4DDE-81AB-D0B64C6ED970}"/>
+  <xr:revisionPtr revIDLastSave="1165" documentId="13_ncr:1_{9BCBE8B6-1D01-428B-BA27-8B738826BB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F9431F0D-0187-4A1A-B4AE-F5D472AAB43C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="432">
   <si>
     <t>状態</t>
   </si>
@@ -122,9 +122,6 @@
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未処理</t>
   </si>
   <si>
     <t>パッケージ</t>
@@ -277,12 +274,15 @@
   </si>
   <si>
     <t>ポインタ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ポインター</t>
   </si>
   <si>
+    <t>ポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ミーリ</t>
   </si>
   <si>
@@ -305,11 +305,26 @@
     <t>Moore</t>
   </si>
   <si>
+    <t>ミーリ型</t>
+  </si>
+  <si>
+    <t>ミーリ形</t>
+  </si>
+  <si>
+    <t>ムーア型</t>
+  </si>
+  <si>
+    <t>ムーア形</t>
+  </si>
+  <si>
     <t>ブール式</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ブール方程式</t>
+  </si>
+  <si>
+    <t>ブール式</t>
   </si>
   <si>
     <t>同じもの?違うもの?</t>
@@ -325,6 +340,9 @@
     <t>多分同じものかと。ブール式の方が良い気がします。</t>
   </si>
   <si>
+    <t>未処理</t>
+  </si>
+  <si>
     <t>~される</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,8 +351,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とめかた</t>
-    <phoneticPr fontId="1"/>
+    <t>とめかた。今はほぼ、されます。</t>
   </si>
   <si>
     <t>「る」止めに統一しましょうか？</t>
@@ -346,6 +363,9 @@
   <si>
     <t>~できます</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とめかた。今はほぼ、できます。</t>
   </si>
   <si>
     <t>訳語</t>
@@ -404,6 +424,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ムーア版</t>
+  </si>
+  <si>
+    <t>ミーリ版</t>
+  </si>
+  <si>
     <t>チャンネル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,12 +467,6 @@
       <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバウンス</t>
-  </si>
-  <si>
-    <t>デ・バウンス</t>
   </si>
   <si>
     <t>エレメント</t>
@@ -544,6 +564,9 @@
     <t>”リセット”でしょうか。</t>
   </si>
   <si>
+    <t>Clock信号</t>
+  </si>
+  <si>
     <t>幅推論</t>
   </si>
   <si>
@@ -647,6 +670,9 @@
     <t>コミュニケートステートマシン</t>
   </si>
   <si>
+    <t>通信するステートマシン</t>
+  </si>
+  <si>
     <t>ふつうは、どう訳すの?</t>
     <rPh sb="7" eb="8">
       <t>ヤク</t>
@@ -728,10 +754,6 @@
     <t>シュミレート</t>
   </si>
   <si>
-    <t>ハミングウェイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハミング重み</t>
     <rPh sb="4" eb="5">
       <t>オモ</t>
@@ -739,6 +761,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ハミングウェイト</t>
+  </si>
+  <si>
     <t>Playボタン</t>
   </si>
   <si>
@@ -767,6 +792,48 @@
     <t>Ready-Validインターフェース</t>
   </si>
   <si>
+    <t>Camelや-と/のゆれ。今は原著どおり</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>バンドル</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>バブル</t>
+  </si>
+  <si>
+    <t>泡(バブル)</t>
+  </si>
+  <si>
+    <t>泡</t>
+  </si>
+  <si>
+    <t>イメージしやすいかと思い。この表記にしました。</t>
+  </si>
+  <si>
+    <t>ワンホット</t>
+  </si>
+  <si>
+    <t>通じるだろうか?</t>
+  </si>
+  <si>
+    <t>ワンライナー</t>
+  </si>
+  <si>
+    <t>n-Bit</t>
+  </si>
+  <si>
+    <t>nBit</t>
+  </si>
+  <si>
+    <t>nビット</t>
+  </si>
+  <si>
     <t>コンストラクト</t>
   </si>
   <si>
@@ -780,40 +847,51 @@
   </si>
   <si>
     <t>バッファ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>バッファー</t>
   </si>
   <si>
     <t>レシーバ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レシーバー</t>
   </si>
   <si>
+    <t>レシーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>テスタ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスター</t>
   </si>
   <si>
+    <t>テスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>タイマ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイマー</t>
   </si>
   <si>
+    <t>タイマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>カウンタ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カウンター</t>
   </si>
   <si>
+    <t>カウンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>受信機</t>
   </si>
   <si>
@@ -831,187 +909,314 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>フラッシャ</t>
+  </si>
+  <si>
     <t>フラッシャー</t>
   </si>
   <si>
-    <t>フラッシャ</t>
-  </si>
-  <si>
     <t>ジェネレータ</t>
   </si>
   <si>
     <t>ジェネレーター</t>
   </si>
   <si>
+    <t>パラメータ</t>
+  </si>
+  <si>
+    <t>パラメーター</t>
+  </si>
+  <si>
+    <t>フレンドリ</t>
+  </si>
+  <si>
+    <t>フレンドリー</t>
+  </si>
+  <si>
+    <t>コンピュータ</t>
+  </si>
+  <si>
+    <t>コンピューター</t>
+  </si>
+  <si>
+    <t>アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャー</t>
+  </si>
+  <si>
+    <t>マネージャ</t>
+  </si>
+  <si>
+    <t>マネージャー</t>
+  </si>
+  <si>
+    <t>ベンダ</t>
+  </si>
+  <si>
+    <t>ベンダー</t>
+  </si>
+  <si>
+    <t>ライブラリ</t>
+  </si>
+  <si>
+    <t>ライブラリー</t>
+  </si>
+  <si>
+    <t>フォルダ</t>
+  </si>
+  <si>
+    <t>フォルダー</t>
+  </si>
+  <si>
+    <t>リポジトリ</t>
+  </si>
+  <si>
+    <t>リポジトリー</t>
+  </si>
+  <si>
+    <t>データ</t>
+  </si>
+  <si>
+    <t>データー</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>トリガ</t>
+  </si>
+  <si>
+    <t>トリガー</t>
+  </si>
+  <si>
+    <t>べクタ</t>
+  </si>
+  <si>
+    <t>べクター</t>
+  </si>
+  <si>
+    <t>ビューア</t>
+  </si>
+  <si>
+    <t>ビューアー</t>
+  </si>
+  <si>
+    <t>ユーティリティ</t>
+  </si>
+  <si>
+    <t>ユーティリティー</t>
+  </si>
+  <si>
+    <t>マルチプレクサ</t>
+  </si>
+  <si>
+    <t>マルチプレクサー</t>
+  </si>
+  <si>
+    <t>プロセッサ</t>
+  </si>
+  <si>
+    <t>プロセッサー</t>
+  </si>
+  <si>
+    <t>フィルタ</t>
+  </si>
+  <si>
+    <t>フィルター</t>
+  </si>
+  <si>
+    <t>ワイヤ</t>
+  </si>
+  <si>
+    <t>ワイヤー</t>
+  </si>
+  <si>
+    <t>メモリ</t>
+  </si>
+  <si>
+    <t>メモリー</t>
+  </si>
+  <si>
+    <t>スタビリティ</t>
+  </si>
+  <si>
+    <t>スタビリティー</t>
+  </si>
+  <si>
+    <t>シンクロナイザ</t>
+  </si>
+  <si>
+    <t>シンクロナイザー</t>
+  </si>
+  <si>
+    <t>オペレータ</t>
+  </si>
+  <si>
+    <t>オペレーター</t>
+  </si>
+  <si>
+    <t>アキュムレータ</t>
+  </si>
+  <si>
+    <t>アキュムレーター</t>
+  </si>
+  <si>
+    <t>トランスミッタ</t>
+  </si>
+  <si>
+    <t>トランスミッター</t>
+  </si>
+  <si>
+    <t>デコーダ</t>
+  </si>
+  <si>
+    <t>デコーダー</t>
+  </si>
+  <si>
+    <t>エンコーダ</t>
+  </si>
+  <si>
+    <t>エンコーダー</t>
+  </si>
+  <si>
+    <t>ヘルパ</t>
+  </si>
+  <si>
+    <t>ヘルパー</t>
+  </si>
+  <si>
+    <t>コンテナ</t>
+  </si>
+  <si>
+    <t>コンテナー</t>
+  </si>
+  <si>
+    <t>アセンブラ</t>
+  </si>
+  <si>
+    <t>アセンブラー</t>
+  </si>
+  <si>
+    <t>シミュレータ</t>
+  </si>
+  <si>
+    <t>シミュレーター</t>
+  </si>
+  <si>
+    <t>アクセラレータ</t>
+  </si>
+  <si>
+    <t>アクセラレーター</t>
+  </si>
+  <si>
+    <t>キャプチャー</t>
+  </si>
+  <si>
+    <t>キャプチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーダスキー</t>
+  </si>
+  <si>
+    <t>人名</t>
+  </si>
+  <si>
     <t>マイナー</t>
   </si>
   <si>
-    <t>パラメータ</t>
-  </si>
-  <si>
-    <t>パラメーター</t>
-  </si>
-  <si>
-    <t>フレンドリー</t>
-  </si>
-  <si>
-    <t>コンピュータ</t>
-  </si>
-  <si>
-    <t>コンピューター</t>
-  </si>
-  <si>
-    <t>アーキテクチャ</t>
-  </si>
-  <si>
-    <t>アーキテクチャー</t>
-  </si>
-  <si>
-    <t>オーダスキー</t>
-  </si>
-  <si>
-    <t>人名</t>
-  </si>
-  <si>
     <t>エラー</t>
   </si>
   <si>
-    <t>マネージャ</t>
-  </si>
-  <si>
-    <t>マネージャー</t>
-  </si>
-  <si>
-    <t>ベンダ</t>
-  </si>
-  <si>
-    <t>ベンダー</t>
-  </si>
-  <si>
     <t>フリー</t>
   </si>
   <si>
-    <t>ライブラリ</t>
-  </si>
-  <si>
-    <t>ライブラリー</t>
-  </si>
-  <si>
-    <t>フォルダ</t>
-  </si>
-  <si>
-    <t>フォルダー</t>
+    <t>オーバーフロー</t>
+  </si>
+  <si>
+    <t>フォールスルー</t>
+  </si>
+  <si>
+    <t>ティッカー</t>
+  </si>
+  <si>
+    <t>ティッカ</t>
+  </si>
+  <si>
+    <t>サーバー</t>
+  </si>
+  <si>
+    <t>サーバ</t>
+  </si>
+  <si>
+    <t>バークレー</t>
+  </si>
+  <si>
+    <t>アービター</t>
+  </si>
+  <si>
+    <t>アービタ</t>
   </si>
   <si>
     <t>ポピュラー</t>
   </si>
   <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>リポジトリー</t>
-  </si>
-  <si>
-    <t>データ</t>
-  </si>
-  <si>
-    <t>データー</t>
-  </si>
-  <si>
-    <t>ユーザ</t>
-  </si>
-  <si>
-    <t>ユーザー</t>
-  </si>
-  <si>
-    <t>トリガ</t>
-  </si>
-  <si>
-    <t>トリガー</t>
-  </si>
-  <si>
-    <t>べクタ</t>
-  </si>
-  <si>
-    <t>べクター</t>
-  </si>
-  <si>
-    <t>ビューア</t>
-  </si>
-  <si>
-    <t>ビューアー</t>
-  </si>
-  <si>
-    <t>ユーティリティ</t>
-  </si>
-  <si>
-    <t>ユーティリティー</t>
-  </si>
-  <si>
-    <t>デコーダー</t>
-  </si>
-  <si>
-    <t>エンコーダー</t>
-  </si>
-  <si>
-    <t>マルチプレクサ</t>
-  </si>
-  <si>
-    <t>マルチプレクサー</t>
-  </si>
-  <si>
-    <t>プロセッサ</t>
-  </si>
-  <si>
-    <t>プロセッサー</t>
-  </si>
-  <si>
-    <t>タイマ</t>
-  </si>
-  <si>
-    <t>フィルタ</t>
-  </si>
-  <si>
-    <t>フィルター</t>
-  </si>
-  <si>
-    <t>ワイヤ</t>
-  </si>
-  <si>
-    <t>ワイヤー</t>
-  </si>
-  <si>
-    <t>ワイア</t>
-  </si>
-  <si>
-    <t>メモリ</t>
-  </si>
-  <si>
-    <t>メモリー</t>
-  </si>
-  <si>
-    <t>スタビリティ</t>
-  </si>
-  <si>
-    <t>スタビリティー</t>
-  </si>
-  <si>
-    <t>シンクロナイザ</t>
-  </si>
-  <si>
-    <t>シンクロナイザー</t>
-  </si>
-  <si>
-    <t>ワンライナー</t>
+    <t>ツアー</t>
+  </si>
+  <si>
+    <t>キュー</t>
+  </si>
+  <si>
+    <t>エコー</t>
+  </si>
+  <si>
+    <t>デキュー</t>
+  </si>
+  <si>
+    <t>エンキュー</t>
+  </si>
+  <si>
+    <t>ルーター</t>
+  </si>
+  <si>
+    <t>ルータ</t>
+  </si>
+  <si>
+    <t>Networkならルーターかな</t>
+  </si>
+  <si>
+    <t>フロー</t>
+  </si>
+  <si>
+    <t>マーカー</t>
+  </si>
+  <si>
+    <t>アダー</t>
+  </si>
+  <si>
+    <t>パワー</t>
+  </si>
+  <si>
+    <t>コピー</t>
+  </si>
+  <si>
+    <t>ツリー</t>
+  </si>
+  <si>
+    <t>カバー</t>
+  </si>
+  <si>
+    <t>バー</t>
   </si>
   <si>
     <t>ワンライナ</t>
   </si>
   <si>
-    <t>オペレータ</t>
-  </si>
-  <si>
-    <t>オペレーター</t>
+    <t>(とりま)マスター</t>
   </si>
   <si>
     <t>マスター</t>
@@ -1020,128 +1225,10 @@
     <t>これはまた、デリケートな表現だ。。。</t>
   </si>
   <si>
-    <t>レシーバ</t>
-  </si>
-  <si>
-    <t>アキュムレータ</t>
-  </si>
-  <si>
-    <t>アキュムレーター</t>
-  </si>
-  <si>
-    <t>ティッカー</t>
-  </si>
-  <si>
-    <t>ポインタ</t>
-  </si>
-  <si>
-    <t>トランスミッタ</t>
-  </si>
-  <si>
-    <t>トランスミッター</t>
-  </si>
-  <si>
-    <t>ヘルパ</t>
-  </si>
-  <si>
-    <t>ヘルパー</t>
-  </si>
-  <si>
-    <t>コンテナ</t>
-  </si>
-  <si>
-    <t>コンテナー</t>
-  </si>
-  <si>
-    <t>オーバーフロー</t>
-  </si>
-  <si>
-    <t>フォールスルー</t>
-  </si>
-  <si>
-    <t>アセンブラ</t>
-  </si>
-  <si>
-    <t>アセンブラー</t>
-  </si>
-  <si>
-    <t>シミュレーター</t>
-  </si>
-  <si>
-    <t>シミュレータ</t>
-  </si>
-  <si>
-    <t>サーバー</t>
-  </si>
-  <si>
-    <t>サーバ</t>
-  </si>
-  <si>
-    <t>バークレー</t>
-  </si>
-  <si>
-    <t>アービター</t>
-  </si>
-  <si>
-    <t>アービタ</t>
-  </si>
-  <si>
-    <t>ツアー</t>
-  </si>
-  <si>
-    <t>キュー</t>
-  </si>
-  <si>
-    <t>エコー</t>
-  </si>
-  <si>
-    <t>デキュー</t>
-  </si>
-  <si>
-    <t>エンキュー</t>
-  </si>
-  <si>
-    <t>ルーター</t>
-  </si>
-  <si>
-    <t>ルータ</t>
-  </si>
-  <si>
-    <t>Networkならルーターかな</t>
-  </si>
-  <si>
-    <t>フロー</t>
-  </si>
-  <si>
-    <t>マーカー</t>
-  </si>
-  <si>
-    <t>パワー</t>
-  </si>
-  <si>
-    <t>コピー</t>
-  </si>
-  <si>
-    <t>ツリー</t>
-  </si>
-  <si>
-    <t>カバー</t>
-  </si>
-  <si>
-    <t>バー</t>
-  </si>
-  <si>
-    <t>アクセラレーター</t>
-  </si>
-  <si>
-    <t>アクセラレータ</t>
-  </si>
-  <si>
-    <t>キャプチャー</t>
-  </si>
-  <si>
-    <t>キャプチャ</t>
-    <phoneticPr fontId="1"/>
+    <t>用語を今すぐ変える必要はないと思いますが、これを参照に追加しておくのは良いかもしれません</t>
+  </si>
+  <si>
+    <t>https://www.opencompute.org/documents/ocp-terminology-guidelines-for-inclusion-and-openness</t>
   </si>
   <si>
     <t>中黒</t>
@@ -1350,6 +1437,12 @@
   </si>
   <si>
     <t>デ・アサート</t>
+  </si>
+  <si>
+    <t>デバウンス</t>
+  </si>
+  <si>
+    <t>デ・バウンス</t>
   </si>
   <si>
     <t>デューティサイクル</t>
@@ -1524,7 +1617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1632,11 +1725,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,6 +1768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1946,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M242"/>
+  <dimension ref="C2:M273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F198" sqref="F197:G198"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2075,168 +2178,168 @@
     </row>
     <row r="6" spans="3:13" ht="18.75" customHeight="1">
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="18.75" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="18.75">
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="18.75">
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="18.75">
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="L10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="3:13" ht="18.75">
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>11</v>
@@ -2245,88 +2348,88 @@
     </row>
     <row r="12" spans="3:13" ht="18.75">
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="3:13" ht="18.75" customHeight="1">
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="18.75">
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="6"/>
       <c r="L14" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="18.75" customHeight="1">
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>57</v>
@@ -2353,7 +2456,7 @@
     </row>
     <row r="16" spans="3:13" ht="18.75" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>61</v>
@@ -2380,39 +2483,39 @@
     </row>
     <row r="17" spans="3:13" ht="18.75" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="18.75" customHeight="1">
-      <c r="C18" s="1"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2420,111 +2523,113 @@
       <c r="L18" s="9"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="3:13" ht="18.75">
+    <row r="19" spans="3:13" ht="18.75" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="8" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="3:13" ht="18.75">
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="L19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="3:13" ht="18.75">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="3:13" ht="6" customHeight="1">
-      <c r="C21" s="1"/>
       <c r="D21" s="14"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="3:13" ht="33">
-      <c r="C22" s="17" t="s">
-        <v>74</v>
+    <row r="22" spans="3:13" ht="18.75">
+      <c r="C22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="3:13" ht="18.75">
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="23" spans="3:13" ht="6" customHeight="1">
+      <c r="C23" s="1"/>
       <c r="D23" s="14"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="8"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="3:13" ht="18.75">
-      <c r="C24" s="1" t="s">
-        <v>19</v>
+    <row r="24" spans="3:13" ht="33">
+      <c r="C24" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2534,150 +2639,148 @@
     </row>
     <row r="25" spans="3:13" ht="18.75">
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="8"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="3:13" ht="18.75">
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="8"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="3:13" ht="18.75">
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="8"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="3:13" ht="18.75">
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:13" ht="18.75" customHeight="1">
+    <row r="29" spans="3:13" ht="18.75">
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="3:13" ht="18.75">
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="3:13" ht="18.75">
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="3:13" ht="18.75">
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="1"/>
@@ -2685,182 +2788,182 @@
         <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="3:13" ht="18.75">
+    <row r="33" spans="3:13" ht="18.75" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="12"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="3:13" ht="18.75">
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="2"/>
       <c r="L34" s="8"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="3:13" ht="18.75">
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="8"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="3:13" ht="18.75" customHeight="1">
+    <row r="36" spans="3:13" ht="18.75">
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="L36" s="8"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="3:13" ht="18.75" customHeight="1">
+    <row r="37" spans="3:13" ht="18.75">
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="8"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="3:13" ht="18.75" customHeight="1">
+    <row r="38" spans="3:13" ht="18.75">
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="8"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="3:13" ht="18.75">
+    <row r="39" spans="3:13" ht="18.75" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="3:13" ht="18.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>121</v>
@@ -2868,9 +2971,9 @@
       <c r="L40" s="8"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="3:13" ht="18.75">
+    <row r="41" spans="3:13" ht="18.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="1"/>
@@ -2880,43 +2983,49 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2"/>
+      <c r="J41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="3:13" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L42" s="8"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="3:13" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2925,153 +3034,145 @@
       <c r="L43" s="8"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" ht="18.75">
+    <row r="44" spans="3:13" ht="18.75" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="3:13" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="2"/>
       <c r="L45" s="8"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="3:13" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="8"/>
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="3:13" ht="18.75">
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="2"/>
       <c r="L47" s="8"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" ht="18.75" customHeight="1">
+    <row r="48" spans="3:13" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K48" s="2"/>
       <c r="L48" s="8"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" ht="18.75" customHeight="1">
+    <row r="49" spans="3:13" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K49" s="2"/>
       <c r="L49" s="8"/>
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="3:13" ht="18.75">
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="2"/>
@@ -3080,100 +3181,106 @@
     </row>
     <row r="51" spans="3:13" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="8"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" ht="18.75">
+    <row r="52" spans="3:13" ht="18.75" customHeight="1">
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="3:13" ht="18.75" customHeight="1">
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K53" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="3:13" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="J54" s="1"/>
       <c r="K54" s="2"/>
       <c r="L54" s="8"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="3:13" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="8"/>
@@ -3181,121 +3288,125 @@
     </row>
     <row r="56" spans="3:13" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K56" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="L56" s="8"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" ht="18.75">
+    <row r="57" spans="3:13" ht="18.75" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K57" s="2"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="L57" s="8"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="3:13" ht="18.75">
       <c r="C58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="8"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="3:13" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="14"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="8"/>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="3:13" ht="18.75">
       <c r="C60" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="L60" s="8"/>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="3:13" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G61" s="1"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="8"/>
@@ -3303,66 +3414,72 @@
     </row>
     <row r="62" spans="3:13" ht="18.75">
       <c r="C62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="8"/>
       <c r="F62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="8"/>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="3:13" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="12"/>
       <c r="F63" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="8"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="3:13" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="8"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="3:13" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="1"/>
@@ -3372,245 +3489,237 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="L65" s="8"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="3:13" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G66" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="8"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="3:13" ht="4.5" customHeight="1">
-      <c r="C67" s="1"/>
+    <row r="67" spans="3:13" ht="18.75">
+      <c r="C67" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D67" s="14"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="8"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="3:13" ht="33">
-      <c r="C68" s="17" t="s">
-        <v>181</v>
+    <row r="68" spans="3:13" ht="18.75">
+      <c r="C68" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="8"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="3:13" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D69" s="14"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="8"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="3:13" ht="18.75">
       <c r="C70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D70" s="14"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="8"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="3:13" ht="18.75">
       <c r="C71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>10</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="2"/>
+      <c r="J71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K71" s="1"/>
       <c r="L71" s="8"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="3:13" ht="18.75">
       <c r="C72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D72" s="14"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="2"/>
+      <c r="J72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K72" s="1"/>
       <c r="L72" s="8"/>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="3:13" ht="18.75">
       <c r="C73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D73" s="14"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="2"/>
+      <c r="J73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" s="1"/>
       <c r="L73" s="8"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="3:13" ht="18.75">
       <c r="C74" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="8"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="3:13" ht="18.75">
       <c r="C75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D75" s="14"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K75" s="2"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="8"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="3:13" ht="18.75">
       <c r="C76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>195</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D76" s="14"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>195</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K76" s="2"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="8"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="3:13" ht="18.75">
       <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D77" s="14"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3619,20 +3728,12 @@
       <c r="L77" s="8"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="3:13" ht="18.75">
-      <c r="C78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>199</v>
-      </c>
+    <row r="78" spans="3:13" ht="4.5" customHeight="1">
+      <c r="C78" s="1"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3640,17 +3741,13 @@
       <c r="L78" s="8"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="3:13" ht="18.75">
-      <c r="C79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>201</v>
-      </c>
+    <row r="79" spans="3:13" ht="33">
+      <c r="C79" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="14"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3661,180 +3758,192 @@
     </row>
     <row r="80" spans="3:13" ht="18.75">
       <c r="C80" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="8"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="3:13" ht="18.75">
       <c r="C81" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="8"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="3:13" ht="18.75">
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="8"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="3:13" ht="18.75">
       <c r="C83" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="K83" s="2"/>
       <c r="L83" s="8"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="3:13" ht="18.75">
       <c r="C84" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="2"/>
       <c r="L84" s="8"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="3:13" ht="18.75">
       <c r="C85" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="K85" s="2"/>
       <c r="L85" s="8"/>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="3:13" ht="18.75">
       <c r="C86" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K86" s="2"/>
       <c r="L86" s="8"/>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="3:13" ht="18.75">
       <c r="C87" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K87" s="2"/>
       <c r="L87" s="8"/>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="3:13" ht="18.75">
       <c r="C88" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3844,17 +3953,17 @@
     </row>
     <row r="89" spans="3:13" ht="18.75">
       <c r="C89" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3865,17 +3974,17 @@
     </row>
     <row r="90" spans="3:13" ht="18.75">
       <c r="C90" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3886,18 +3995,16 @@
     </row>
     <row r="91" spans="3:13" ht="18.75">
       <c r="C91" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -3907,16 +4014,18 @@
     </row>
     <row r="92" spans="3:13" ht="18.75">
       <c r="C92" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -3926,17 +4035,17 @@
     </row>
     <row r="93" spans="3:13" ht="18.75">
       <c r="C93" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3947,17 +4056,17 @@
     </row>
     <row r="94" spans="3:13" ht="18.75">
       <c r="C94" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3968,17 +4077,17 @@
     </row>
     <row r="95" spans="3:13" ht="18.75">
       <c r="C95" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3989,17 +4098,17 @@
     </row>
     <row r="96" spans="3:13" ht="18.75">
       <c r="C96" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4010,17 +4119,17 @@
     </row>
     <row r="97" spans="3:13" ht="18.75">
       <c r="C97" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4031,17 +4140,17 @@
     </row>
     <row r="98" spans="3:13" ht="18.75">
       <c r="C98" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4052,17 +4161,17 @@
     </row>
     <row r="99" spans="3:13" ht="18.75">
       <c r="C99" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4073,16 +4182,18 @@
     </row>
     <row r="100" spans="3:13" ht="18.75">
       <c r="C100" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -4092,16 +4203,18 @@
     </row>
     <row r="101" spans="3:13" ht="18.75">
       <c r="C101" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -4111,17 +4224,17 @@
     </row>
     <row r="102" spans="3:13" ht="18.75">
       <c r="C102" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4132,17 +4245,17 @@
     </row>
     <row r="103" spans="3:13" ht="18.75">
       <c r="C103" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4153,17 +4266,17 @@
     </row>
     <row r="104" spans="3:13" ht="18.75">
       <c r="C104" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4174,17 +4287,17 @@
     </row>
     <row r="105" spans="3:13" ht="18.75">
       <c r="C105" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4195,21 +4308,19 @@
     </row>
     <row r="106" spans="3:13" ht="18.75">
       <c r="C106" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4218,17 +4329,17 @@
     </row>
     <row r="107" spans="3:13" ht="18.75">
       <c r="C107" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4239,17 +4350,17 @@
     </row>
     <row r="108" spans="3:13" ht="18.75">
       <c r="C108" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -4260,17 +4371,17 @@
     </row>
     <row r="109" spans="3:13" ht="18.75">
       <c r="C109" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -4281,17 +4392,17 @@
     </row>
     <row r="110" spans="3:13" ht="18.75">
       <c r="C110" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4302,17 +4413,17 @@
     </row>
     <row r="111" spans="3:13" ht="18.75">
       <c r="C111" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4323,17 +4434,17 @@
     </row>
     <row r="112" spans="3:13" ht="18.75">
       <c r="C112" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4344,36 +4455,38 @@
     </row>
     <row r="113" spans="3:13" ht="18.75">
       <c r="C113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="8"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="3:13" ht="18.75">
       <c r="C114" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -4384,17 +4497,17 @@
     </row>
     <row r="115" spans="3:13" ht="18.75">
       <c r="C115" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4405,14 +4518,18 @@
     </row>
     <row r="116" spans="3:13" ht="18.75">
       <c r="C116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4422,17 +4539,17 @@
     </row>
     <row r="117" spans="3:13" ht="18.75">
       <c r="C117" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4443,17 +4560,17 @@
     </row>
     <row r="118" spans="3:13" ht="18.75">
       <c r="C118" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4464,17 +4581,17 @@
     </row>
     <row r="119" spans="3:13" ht="18.75">
       <c r="C119" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4485,17 +4602,17 @@
     </row>
     <row r="120" spans="3:13" ht="18.75">
       <c r="C120" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4506,17 +4623,17 @@
     </row>
     <row r="121" spans="3:13" ht="18.75">
       <c r="C121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4527,16 +4644,18 @@
     </row>
     <row r="122" spans="3:13" ht="18.75">
       <c r="C122" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E122" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="E122" s="14"/>
       <c r="F122" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G122" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -4546,16 +4665,18 @@
     </row>
     <row r="123" spans="3:13" ht="18.75">
       <c r="C123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>272</v>
+        <v>10</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -4565,17 +4686,17 @@
     </row>
     <row r="124" spans="3:13" ht="18.75">
       <c r="C124" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4586,15 +4707,17 @@
     </row>
     <row r="125" spans="3:13" ht="18.75">
       <c r="C125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4605,17 +4728,17 @@
     </row>
     <row r="126" spans="3:13" ht="18.75">
       <c r="C126" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4626,16 +4749,18 @@
     </row>
     <row r="127" spans="3:13" ht="18.75">
       <c r="C127" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -4645,54 +4770,56 @@
     </row>
     <row r="128" spans="3:13" ht="18.75">
       <c r="C128" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="8"/>
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="3:13" ht="18.75">
       <c r="C129" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="J129" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="K129" s="1"/>
       <c r="L129" s="8"/>
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="3:13" ht="18.75">
       <c r="C130" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -4704,14 +4831,14 @@
     </row>
     <row r="131" spans="3:13" ht="18.75">
       <c r="C131" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -4723,14 +4850,14 @@
     </row>
     <row r="132" spans="3:13" ht="18.75">
       <c r="C132" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -4742,14 +4869,14 @@
     </row>
     <row r="133" spans="3:13" ht="18.75">
       <c r="C133" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -4761,39 +4888,37 @@
     </row>
     <row r="134" spans="3:13" ht="18.75">
       <c r="C134" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>288</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="8"/>
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="3:13" ht="18.75">
       <c r="C135" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G135" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4803,16 +4928,18 @@
     </row>
     <row r="136" spans="3:13" ht="18.75">
       <c r="C136" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4822,14 +4949,14 @@
     </row>
     <row r="137" spans="3:13" ht="18.75">
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -4841,16 +4968,18 @@
     </row>
     <row r="138" spans="3:13" ht="18.75">
       <c r="C138" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -4860,14 +4989,14 @@
     </row>
     <row r="139" spans="3:13" ht="18.75">
       <c r="C139" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -4879,14 +5008,14 @@
     </row>
     <row r="140" spans="3:13" ht="18.75">
       <c r="C140" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -4898,14 +5027,14 @@
     </row>
     <row r="141" spans="3:13" ht="18.75">
       <c r="C141" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -4917,14 +5046,14 @@
     </row>
     <row r="142" spans="3:13" ht="18.75">
       <c r="C142" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -4936,16 +5065,16 @@
     </row>
     <row r="143" spans="3:13" ht="18.75">
       <c r="C143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -4955,43 +5084,57 @@
     </row>
     <row r="144" spans="3:13" ht="18.75">
       <c r="C144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="2"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="8"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="3:13" ht="5.25" customHeight="1">
-      <c r="C145" s="1"/>
-      <c r="D145" s="14"/>
+    <row r="145" spans="3:13" ht="18.75">
+      <c r="C145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="2"/>
+      <c r="J145" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K145" s="1"/>
       <c r="L145" s="8"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="3:13" ht="33">
-      <c r="C146" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D146" s="14"/>
+    <row r="146" spans="3:13" ht="18.75">
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -5004,16 +5147,14 @@
       <c r="C147" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="14" t="s">
-        <v>302</v>
+      <c r="D147" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -5026,15 +5167,13 @@
         <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>305</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -5047,20 +5186,16 @@
         <v>10</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="8"/>
       <c r="M149" s="1"/>
@@ -5070,21 +5205,17 @@
         <v>10</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K150" s="2"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
       <c r="L150" s="8"/>
       <c r="M150" s="1"/>
     </row>
@@ -5093,19 +5224,17 @@
         <v>10</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
-      <c r="K151" s="2"/>
+      <c r="K151" s="1"/>
       <c r="L151" s="8"/>
       <c r="M151" s="1"/>
     </row>
@@ -5114,19 +5243,17 @@
         <v>10</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
-      <c r="K152" s="2"/>
+      <c r="K152" s="1"/>
       <c r="L152" s="8"/>
       <c r="M152" s="1"/>
     </row>
@@ -5135,19 +5262,17 @@
         <v>10</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
-      <c r="K153" s="2"/>
+      <c r="K153" s="1"/>
       <c r="L153" s="8"/>
       <c r="M153" s="1"/>
     </row>
@@ -5156,82 +5281,72 @@
         <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="1"/>
       <c r="L154" s="8"/>
       <c r="M154" s="1"/>
     </row>
     <row r="155" spans="3:13" ht="18.75">
       <c r="C155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>320</v>
+        <v>73</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="8"/>
+      <c r="J155" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K155" s="1"/>
+      <c r="L155" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="3:13" ht="18.75">
-      <c r="C156" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>322</v>
-      </c>
+    <row r="156" spans="3:13" ht="5.25" customHeight="1">
+      <c r="C156" s="1"/>
+      <c r="D156" s="14"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="8"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="3:13" ht="18.75">
-      <c r="C157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>324</v>
-      </c>
+    <row r="157" spans="3:13" ht="33">
+      <c r="C157" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D157" s="14"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
-      <c r="K157" s="2"/>
+      <c r="K157" s="1"/>
       <c r="L157" s="8"/>
       <c r="M157" s="1"/>
     </row>
@@ -5239,20 +5354,20 @@
       <c r="C158" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>326</v>
+      <c r="D158" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="2"/>
+      <c r="K158" s="1"/>
       <c r="L158" s="8"/>
       <c r="M158" s="1"/>
     </row>
@@ -5261,19 +5376,19 @@
         <v>10</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="2"/>
+      <c r="K159" s="1"/>
       <c r="L159" s="8"/>
       <c r="M159" s="1"/>
     </row>
@@ -5282,19 +5397,21 @@
         <v>10</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="2"/>
+      <c r="J160" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K160" s="1"/>
       <c r="L160" s="8"/>
       <c r="M160" s="1"/>
     </row>
@@ -5303,18 +5420,20 @@
         <v>10</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="J161" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K161" s="2"/>
       <c r="L161" s="8"/>
       <c r="M161" s="1"/>
@@ -5324,14 +5443,14 @@
         <v>10</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -5345,14 +5464,14 @@
         <v>10</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -5366,14 +5485,14 @@
         <v>10</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -5387,22 +5506,20 @@
         <v>10</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="L165" s="8"/>
       <c r="M165" s="1"/>
     </row>
     <row r="166" spans="3:13" ht="18.75">
@@ -5410,66 +5527,62 @@
         <v>10</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="J166" s="1"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="10"/>
+      <c r="L166" s="8"/>
       <c r="M166" s="1"/>
     </row>
     <row r="167" spans="3:13" ht="18.75">
       <c r="C167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="13" t="s">
-        <v>345</v>
-      </c>
+      <c r="D167" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="8"/>
       <c r="M167" s="1"/>
     </row>
     <row r="168" spans="3:13" ht="18.75">
       <c r="C168" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="13"/>
+      <c r="D168" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="8"/>
       <c r="M168" s="1"/>
     </row>
     <row r="169" spans="3:13" ht="18.75">
@@ -5477,19 +5590,19 @@
         <v>10</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
+      <c r="K169" s="2"/>
       <c r="L169" s="8"/>
       <c r="M169" s="1"/>
     </row>
@@ -5498,19 +5611,19 @@
         <v>10</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
+      <c r="K170" s="2"/>
       <c r="L170" s="8"/>
       <c r="M170" s="1"/>
     </row>
@@ -5519,19 +5632,19 @@
         <v>10</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="8"/>
       <c r="M171" s="1"/>
     </row>
@@ -5540,19 +5653,19 @@
         <v>10</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
+      <c r="K172" s="2"/>
       <c r="L172" s="8"/>
       <c r="M172" s="1"/>
     </row>
@@ -5561,19 +5674,19 @@
         <v>10</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
+      <c r="K173" s="2"/>
       <c r="L173" s="8"/>
       <c r="M173" s="1"/>
     </row>
@@ -5582,19 +5695,19 @@
         <v>10</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
+      <c r="K174" s="2"/>
       <c r="L174" s="8"/>
       <c r="M174" s="1"/>
     </row>
@@ -5603,19 +5716,19 @@
         <v>10</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
+      <c r="K175" s="2"/>
       <c r="L175" s="8"/>
       <c r="M175" s="1"/>
     </row>
@@ -5624,20 +5737,22 @@
         <v>10</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="8"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="M176" s="1"/>
     </row>
     <row r="177" spans="3:13" ht="18.75">
@@ -5645,64 +5760,66 @@
         <v>10</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="8"/>
+      <c r="J177" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K177" s="2"/>
+      <c r="L177" s="10"/>
       <c r="M177" s="1"/>
     </row>
     <row r="178" spans="3:13" ht="18.75">
       <c r="C178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K178" s="1"/>
-      <c r="L178" s="8"/>
+      <c r="D178" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="13" t="s">
+        <v>375</v>
+      </c>
       <c r="M178" s="1"/>
     </row>
     <row r="179" spans="3:13" ht="18.75">
       <c r="C179" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="8"/>
+      <c r="D179" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="13"/>
       <c r="M179" s="1"/>
     </row>
     <row r="180" spans="3:13" ht="18.75">
@@ -5710,14 +5827,14 @@
         <v>10</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -5731,14 +5848,14 @@
         <v>10</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>372</v>
+        <v>197</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>372</v>
+        <v>197</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -5752,14 +5869,14 @@
         <v>10</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -5773,14 +5890,14 @@
         <v>10</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -5794,14 +5911,14 @@
         <v>10</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -5815,14 +5932,14 @@
         <v>10</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -5836,30 +5953,36 @@
         <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="2"/>
       <c r="L186" s="8"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="3:13" ht="5.25" customHeight="1">
-      <c r="C187" s="1"/>
-      <c r="D187" s="14"/>
+    <row r="187" spans="3:13" ht="18.75">
+      <c r="C187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -5867,14 +5990,20 @@
       <c r="L187" s="8"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="3:13" ht="33">
-      <c r="C188" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D188" s="14"/>
+    <row r="188" spans="3:13" ht="18.75">
+      <c r="C188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -5884,144 +6013,378 @@
     </row>
     <row r="189" spans="3:13" ht="18.75">
       <c r="C189" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="14"/>
-      <c r="E189" s="1">
-        <v>4474</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E189" s="1"/>
       <c r="F189" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G189" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="8"/>
       <c r="M189" s="1"/>
     </row>
     <row r="190" spans="3:13" ht="18.75">
       <c r="C190" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="16"/>
-      <c r="E190" s="4">
-        <v>3917</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="K190" s="4"/>
-      <c r="L190" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K190" s="1"/>
+      <c r="L190" s="8"/>
       <c r="M190" s="1"/>
     </row>
     <row r="191" spans="3:13" ht="18.75">
       <c r="C191" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="16"/>
-      <c r="E191" s="4">
-        <v>1851</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K191" s="4"/>
-      <c r="L191" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="8"/>
       <c r="M191" s="1"/>
     </row>
     <row r="192" spans="3:13" ht="18.75">
       <c r="C192" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="14"/>
-      <c r="E192" s="1">
-        <v>2024</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G192" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="8"/>
       <c r="M192" s="1"/>
     </row>
     <row r="193" spans="3:13" ht="18.75">
       <c r="C193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="16"/>
-      <c r="E193" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K193" s="4"/>
-      <c r="L193" s="10"/>
-      <c r="M193" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="1"/>
     </row>
     <row r="194" spans="3:13" ht="18.75">
       <c r="C194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="14"/>
-      <c r="E194" s="1">
-        <v>3963</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G194" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="J194" s="1"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
+      <c r="L194" s="8"/>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="3:13" ht="18.75"/>
-    <row r="196" spans="3:13" ht="18.75"/>
-    <row r="197" spans="3:13" ht="18.75"/>
-    <row r="198" spans="3:13" ht="18.75"/>
-    <row r="199" spans="3:13" ht="18.75"/>
-    <row r="200" spans="3:13" ht="18.75"/>
-    <row r="201" spans="3:13" ht="18.75"/>
-    <row r="202" spans="3:13" ht="18.75"/>
-    <row r="205" spans="3:13" ht="18.75"/>
-    <row r="206" spans="3:13" ht="18.75"/>
+    <row r="195" spans="3:13" ht="18.75">
+      <c r="C195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="8"/>
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="3:13" ht="18.75">
+      <c r="C196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="1"/>
+    </row>
+    <row r="197" spans="3:13" ht="18.75">
+      <c r="C197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="3:13" ht="18.75">
+      <c r="C198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K198" s="1"/>
+      <c r="L198" s="8"/>
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="3:13" ht="5.25" customHeight="1">
+      <c r="C199" s="1"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="8"/>
+      <c r="M199" s="1"/>
+    </row>
+    <row r="200" spans="3:13" ht="33">
+      <c r="C200" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="D200" s="14"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="3:13" ht="18.75">
+      <c r="C201" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D201" s="14"/>
+      <c r="E201" s="1">
+        <v>4474</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K201" s="1"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="3:13" ht="18.75">
+      <c r="C202" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D202" s="16"/>
+      <c r="E202" s="4">
+        <v>3917</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K202" s="4"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="3:13" ht="18.75">
+      <c r="C203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E203" s="4">
+        <v>1851</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K203" s="4"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="3:13" ht="18.75">
+      <c r="C204" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D204" s="14"/>
+      <c r="E204" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K204" s="1"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="1"/>
+    </row>
+    <row r="205" spans="3:13" ht="18.75">
+      <c r="C205" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D205" s="16"/>
+      <c r="E205" s="4">
+        <v>2024</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K205" s="4"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="4"/>
+    </row>
+    <row r="206" spans="3:13" ht="18.75">
+      <c r="C206" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="1">
+        <v>3963</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+    </row>
     <row r="207" spans="3:13" ht="18.75"/>
     <row r="208" spans="3:13" ht="18.75"/>
     <row r="209" ht="18.75"/>
@@ -6030,8 +6393,6 @@
     <row r="212" ht="18.75"/>
     <row r="213" ht="18.75"/>
     <row r="214" ht="18.75"/>
-    <row r="215" ht="18.75"/>
-    <row r="216" ht="18.75"/>
     <row r="217" ht="18.75"/>
     <row r="218" ht="18.75"/>
     <row r="219" ht="18.75"/>
@@ -6042,6 +6403,7 @@
     <row r="224" ht="18.75"/>
     <row r="225" ht="18.75"/>
     <row r="226" ht="18.75"/>
+    <row r="227" ht="18.75"/>
     <row r="228" ht="18.75"/>
     <row r="229" ht="18.75"/>
     <row r="230" ht="18.75"/>
@@ -6053,10 +6415,25 @@
     <row r="236" ht="18.75"/>
     <row r="237" ht="18.75"/>
     <row r="238" ht="18.75"/>
-    <row r="239" ht="18.75"/>
     <row r="240" ht="18.75"/>
     <row r="241" ht="18.75"/>
     <row r="242" ht="18.75"/>
+    <row r="243" ht="18.75"/>
+    <row r="244" ht="18.75"/>
+    <row r="245" ht="18.75"/>
+    <row r="246" ht="18.75"/>
+    <row r="247" ht="18.75"/>
+    <row r="248" ht="18.75"/>
+    <row r="249" ht="18.75"/>
+    <row r="250" ht="18.75"/>
+    <row r="251" ht="18.75"/>
+    <row r="252" ht="18.75"/>
+    <row r="253" ht="18.75"/>
+    <row r="254" ht="18.75"/>
+    <row r="270" ht="18.75"/>
+    <row r="271" ht="18.75"/>
+    <row r="272" ht="18.75"/>
+    <row r="273" ht="18.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
